--- a/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_3_part.xlsx
+++ b/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_3_part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5603C826-F2AA-4FEE-A045-B8DB7762EFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ED148A-A5CC-4948-A53F-4EA4D837D681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="170">
   <si>
     <t>type</t>
   </si>
@@ -536,6 +536,12 @@
   </si>
   <si>
     <t>(2024 Juillet) 3. EMS Formulaire Site &amp; participant V4</t>
+  </si>
+  <si>
+    <t>. &lt; 12</t>
+  </si>
+  <si>
+    <t>Le nombre dois être inférieure à 12</t>
   </si>
 </sst>
 </file>
@@ -993,11 +999,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1407,8 +1413,12 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>169</v>
+      </c>
       <c r="H16" s="1" t="s">
         <v>164</v>
       </c>
@@ -2181,7 +2191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
